--- a/Architecture/resource/sessions/ArchitecturePresenter.xlsx
+++ b/Architecture/resource/sessions/ArchitecturePresenter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\googleDrive\me\work\github\learning\Architecture\resource\sessions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>Structure Category&gt; Component-based</t>
   </si>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,7 +534,9 @@
       <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -561,7 +563,9 @@
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -590,7 +594,9 @@
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -599,7 +605,9 @@
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -774,7 +782,9 @@
       <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -795,7 +805,7 @@
       <c r="C31" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B31"/>
+  <autoFilter ref="A1:C31"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Architecture/resource/sessions/ArchitecturePresenter.xlsx
+++ b/Architecture/resource/sessions/ArchitecturePresenter.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>Structure Category&gt; Component-based</t>
   </si>
@@ -478,10 +478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -509,9 +510,11 @@
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -520,14 +523,14 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -547,7 +550,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -556,7 +559,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -578,7 +581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -587,7 +590,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -609,7 +612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -618,7 +621,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -640,7 +643,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -651,7 +654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -673,7 +676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -684,7 +687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -706,7 +709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -717,7 +720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -737,7 +740,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -746,7 +749,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -766,7 +769,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -775,7 +778,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -805,7 +808,13 @@
       <c r="C31" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C31"/>
+  <autoFilter ref="A1:C31">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Rad"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Architecture/resource/sessions/ArchitecturePresenter.xlsx
+++ b/Architecture/resource/sessions/ArchitecturePresenter.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
   <si>
     <t>Structure Category&gt; Component-based</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>CQRS</t>
+  </si>
+  <si>
+    <t>Event Sourcing</t>
+  </si>
+  <si>
+    <t>Microservice</t>
   </si>
 </sst>
 </file>
@@ -194,10 +203,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,11 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,7 +523,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -523,14 +532,14 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -548,9 +557,11 @@
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -559,7 +570,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -581,7 +592,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -590,7 +601,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -612,7 +623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -621,7 +632,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -643,7 +654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -654,7 +665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -676,7 +687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -687,7 +698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -709,7 +720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -720,7 +731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -740,7 +751,7 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -749,7 +760,7 @@
       </c>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -769,7 +780,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -778,7 +789,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -807,14 +818,41 @@
       </c>
       <c r="C31" s="2"/>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C31">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Rad"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C31"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Architecture/resource/sessions/ArchitecturePresenter.xlsx
+++ b/Architecture/resource/sessions/ArchitecturePresenter.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>Structure Category&gt; Component-based</t>
   </si>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -749,7 +749,9 @@
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -778,7 +780,9 @@
       <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
